--- a/Fret Positions.xlsx
+++ b/Fret Positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guitar Staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD09A64-2F0C-4108-9787-5F62997E2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7455D8-7202-42D8-AE55-1AC106D6B6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00714B53-E271-4FF0-B83F-9845028AAE4E}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C95FAA9-9700-4AF1-B039-0530644A48AB}">
-  <dimension ref="C8:L39"/>
+  <dimension ref="C8:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,7 +477,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -487,14 +487,14 @@
       <c r="J19" t="s">
         <v>8</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>9</v>
       </c>
-      <c r="L19" t="s">
+      <c r="R19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>1</v>
       </c>
@@ -509,12 +509,35 @@
         <f>F21</f>
         <v>134</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>D8-15</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="M20">
+        <f>D9-15</f>
+        <v>155</v>
+      </c>
+      <c r="N20">
+        <f>D10-15</f>
+        <v>185</v>
+      </c>
+      <c r="O20">
+        <f>D11-15</f>
+        <v>215</v>
+      </c>
+      <c r="P20">
+        <f>D12-15</f>
+        <v>245</v>
+      </c>
+      <c r="Q20">
+        <f>D13-15</f>
+        <v>275</v>
+      </c>
+      <c r="R20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>2</v>
       </c>
@@ -533,8 +556,29 @@
         <f t="shared" ref="J21:J38" si="1">F22</f>
         <v>119</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <v>125</v>
+      </c>
+      <c r="M21">
+        <v>155</v>
+      </c>
+      <c r="N21">
+        <v>185</v>
+      </c>
+      <c r="O21">
+        <v>215</v>
+      </c>
+      <c r="P21">
+        <v>245</v>
+      </c>
+      <c r="Q21">
+        <v>275</v>
+      </c>
+      <c r="R21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>3</v>
       </c>
@@ -553,8 +597,29 @@
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <v>125</v>
+      </c>
+      <c r="M22">
+        <v>155</v>
+      </c>
+      <c r="N22">
+        <v>185</v>
+      </c>
+      <c r="O22">
+        <v>215</v>
+      </c>
+      <c r="P22">
+        <v>245</v>
+      </c>
+      <c r="Q22">
+        <v>275</v>
+      </c>
+      <c r="R22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>4</v>
       </c>
@@ -573,8 +638,29 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <v>125</v>
+      </c>
+      <c r="M23">
+        <v>155</v>
+      </c>
+      <c r="N23">
+        <v>185</v>
+      </c>
+      <c r="O23">
+        <v>215</v>
+      </c>
+      <c r="P23">
+        <v>245</v>
+      </c>
+      <c r="Q23">
+        <v>275</v>
+      </c>
+      <c r="R23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>5</v>
       </c>
@@ -593,8 +679,29 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>125</v>
+      </c>
+      <c r="M24">
+        <v>155</v>
+      </c>
+      <c r="N24">
+        <v>185</v>
+      </c>
+      <c r="O24">
+        <v>215</v>
+      </c>
+      <c r="P24">
+        <v>245</v>
+      </c>
+      <c r="Q24">
+        <v>275</v>
+      </c>
+      <c r="R24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>6</v>
       </c>
@@ -613,8 +720,29 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <v>125</v>
+      </c>
+      <c r="M25">
+        <v>155</v>
+      </c>
+      <c r="N25">
+        <v>185</v>
+      </c>
+      <c r="O25">
+        <v>215</v>
+      </c>
+      <c r="P25">
+        <v>245</v>
+      </c>
+      <c r="Q25">
+        <v>275</v>
+      </c>
+      <c r="R25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>7</v>
       </c>
@@ -633,8 +761,29 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <v>125</v>
+      </c>
+      <c r="M26">
+        <v>155</v>
+      </c>
+      <c r="N26">
+        <v>185</v>
+      </c>
+      <c r="O26">
+        <v>215</v>
+      </c>
+      <c r="P26">
+        <v>245</v>
+      </c>
+      <c r="Q26">
+        <v>275</v>
+      </c>
+      <c r="R26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>8</v>
       </c>
@@ -653,8 +802,29 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <v>125</v>
+      </c>
+      <c r="M27">
+        <v>155</v>
+      </c>
+      <c r="N27">
+        <v>185</v>
+      </c>
+      <c r="O27">
+        <v>215</v>
+      </c>
+      <c r="P27">
+        <v>245</v>
+      </c>
+      <c r="Q27">
+        <v>275</v>
+      </c>
+      <c r="R27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>9</v>
       </c>
@@ -673,8 +843,29 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <v>125</v>
+      </c>
+      <c r="M28">
+        <v>155</v>
+      </c>
+      <c r="N28">
+        <v>185</v>
+      </c>
+      <c r="O28">
+        <v>215</v>
+      </c>
+      <c r="P28">
+        <v>245</v>
+      </c>
+      <c r="Q28">
+        <v>275</v>
+      </c>
+      <c r="R28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>10</v>
       </c>
@@ -693,8 +884,29 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <v>125</v>
+      </c>
+      <c r="M29">
+        <v>155</v>
+      </c>
+      <c r="N29">
+        <v>185</v>
+      </c>
+      <c r="O29">
+        <v>215</v>
+      </c>
+      <c r="P29">
+        <v>245</v>
+      </c>
+      <c r="Q29">
+        <v>275</v>
+      </c>
+      <c r="R29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C30">
         <v>11</v>
       </c>
@@ -713,8 +925,29 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <v>125</v>
+      </c>
+      <c r="M30">
+        <v>155</v>
+      </c>
+      <c r="N30">
+        <v>185</v>
+      </c>
+      <c r="O30">
+        <v>215</v>
+      </c>
+      <c r="P30">
+        <v>245</v>
+      </c>
+      <c r="Q30">
+        <v>275</v>
+      </c>
+      <c r="R30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C31">
         <v>12</v>
       </c>
@@ -733,8 +966,29 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>125</v>
+      </c>
+      <c r="M31">
+        <v>155</v>
+      </c>
+      <c r="N31">
+        <v>185</v>
+      </c>
+      <c r="O31">
+        <v>215</v>
+      </c>
+      <c r="P31">
+        <v>245</v>
+      </c>
+      <c r="Q31">
+        <v>275</v>
+      </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C32">
         <v>13</v>
       </c>
@@ -753,8 +1007,29 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>125</v>
+      </c>
+      <c r="M32">
+        <v>155</v>
+      </c>
+      <c r="N32">
+        <v>185</v>
+      </c>
+      <c r="O32">
+        <v>215</v>
+      </c>
+      <c r="P32">
+        <v>245</v>
+      </c>
+      <c r="Q32">
+        <v>275</v>
+      </c>
+      <c r="R32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C33">
         <v>14</v>
       </c>
@@ -773,8 +1048,29 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>125</v>
+      </c>
+      <c r="M33">
+        <v>155</v>
+      </c>
+      <c r="N33">
+        <v>185</v>
+      </c>
+      <c r="O33">
+        <v>215</v>
+      </c>
+      <c r="P33">
+        <v>245</v>
+      </c>
+      <c r="Q33">
+        <v>275</v>
+      </c>
+      <c r="R33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C34">
         <v>15</v>
       </c>
@@ -793,8 +1089,29 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <v>125</v>
+      </c>
+      <c r="M34">
+        <v>155</v>
+      </c>
+      <c r="N34">
+        <v>185</v>
+      </c>
+      <c r="O34">
+        <v>215</v>
+      </c>
+      <c r="P34">
+        <v>245</v>
+      </c>
+      <c r="Q34">
+        <v>275</v>
+      </c>
+      <c r="R34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C35">
         <v>16</v>
       </c>
@@ -813,8 +1130,29 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <v>125</v>
+      </c>
+      <c r="M35">
+        <v>155</v>
+      </c>
+      <c r="N35">
+        <v>185</v>
+      </c>
+      <c r="O35">
+        <v>215</v>
+      </c>
+      <c r="P35">
+        <v>245</v>
+      </c>
+      <c r="Q35">
+        <v>275</v>
+      </c>
+      <c r="R35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C36">
         <v>17</v>
       </c>
@@ -833,8 +1171,29 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <v>125</v>
+      </c>
+      <c r="M36">
+        <v>155</v>
+      </c>
+      <c r="N36">
+        <v>185</v>
+      </c>
+      <c r="O36">
+        <v>215</v>
+      </c>
+      <c r="P36">
+        <v>245</v>
+      </c>
+      <c r="Q36">
+        <v>275</v>
+      </c>
+      <c r="R36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C37">
         <v>18</v>
       </c>
@@ -853,8 +1212,29 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <v>125</v>
+      </c>
+      <c r="M37">
+        <v>155</v>
+      </c>
+      <c r="N37">
+        <v>185</v>
+      </c>
+      <c r="O37">
+        <v>215</v>
+      </c>
+      <c r="P37">
+        <v>245</v>
+      </c>
+      <c r="Q37">
+        <v>275</v>
+      </c>
+      <c r="R37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C38">
         <v>19</v>
       </c>
@@ -873,8 +1253,29 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>125</v>
+      </c>
+      <c r="M38">
+        <v>155</v>
+      </c>
+      <c r="N38">
+        <v>185</v>
+      </c>
+      <c r="O38">
+        <v>215</v>
+      </c>
+      <c r="P38">
+        <v>245</v>
+      </c>
+      <c r="Q38">
+        <v>275</v>
+      </c>
+      <c r="R38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18" x14ac:dyDescent="0.35">
       <c r="F39">
         <v>17</v>
       </c>
